--- a/data/trans_orig/IP1015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1015-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{147DD418-25B3-4273-80EE-19394839AD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FCAEFF6-D7D9-4D71-ADC8-7BA62D2EFEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DDEE437-6854-42F7-9661-9C7DA9A6AFDC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD8D1800-C65E-421A-9D11-44CBDA5E1D1A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="119">
   <si>
     <t>Menores según si padecen parálisis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -103,7 +103,7 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>3,77%</t>
+    <t>4,46%</t>
   </si>
   <si>
     <t>1,4%</t>
@@ -112,13 +112,13 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,98%</t>
+    <t>1,59%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>96,23%</t>
+    <t>95,54%</t>
   </si>
   <si>
     <t>98,6%</t>
@@ -127,7 +127,7 @@
     <t>99,61%</t>
   </si>
   <si>
-    <t>98,02%</t>
+    <t>98,41%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -136,7 +136,7 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,69%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -148,7 +148,7 @@
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,31%</t>
+    <t>99,25%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -163,232 +163,238 @@
     <t>0,43%</t>
   </si>
   <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>98,11%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
 </sst>
 </file>
@@ -800,7 +806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B74FA9-FF1A-426D-AFEA-7366E1024F6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B46AFE1-3100-485B-AB71-7E292223276F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1404,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1413,13 +1419,13 @@
         <v>673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1434,10 +1440,10 @@
         <v>157465</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -1452,7 +1458,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -1464,10 +1470,10 @@
         <v>331532</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -1538,13 +1544,13 @@
         <v>2074</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1559,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -1571,10 +1577,10 @@
         <v>31</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1589,13 +1595,13 @@
         <v>720626</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H17" s="7">
         <v>1018</v>
@@ -1607,7 +1613,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -1622,10 +1628,10 @@
         <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1681,7 +1687,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1701,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829545D7-4AE5-4D01-AC8F-09DAD825DCA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8287C56-C1B4-4FA3-866B-4A4EC701284B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1718,7 +1724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1980,7 +1986,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1995,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2010,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -2043,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2058,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -2129,13 +2135,13 @@
         <v>2041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2144,13 +2150,13 @@
         <v>480</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -2159,13 +2165,13 @@
         <v>2521</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,13 +2186,13 @@
         <v>490363</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H11" s="7">
         <v>650</v>
@@ -2195,10 +2201,10 @@
         <v>449220</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -2210,13 +2216,13 @@
         <v>939582</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,7 +2296,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2305,7 +2311,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2320,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -2353,7 +2359,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -2368,7 +2374,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -2439,13 +2445,13 @@
         <v>2041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2454,13 +2460,13 @@
         <v>480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2469,13 +2475,13 @@
         <v>2521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,10 +2496,10 @@
         <v>746101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>38</v>
@@ -2505,10 +2511,10 @@
         <v>706448</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2520,13 +2526,13 @@
         <v>1452549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,7 +2588,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2602,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76FF08B-ED80-460F-8D5D-2C076CA4986D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4873C0CA-6859-4E19-841F-190F23565A5E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2619,7 +2625,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2869,7 +2875,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2884,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2899,7 +2905,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,7 +2923,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -2932,7 +2938,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2947,7 +2953,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -3024,7 +3030,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3039,7 +3045,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3048,13 +3054,13 @@
         <v>718</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,7 +3078,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3087,7 +3093,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -3099,10 +3105,10 @@
         <v>960307</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3173,13 +3179,13 @@
         <v>646</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3194,7 +3200,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3203,13 +3209,13 @@
         <v>646</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,7 +3230,7 @@
         <v>186849</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>112</v>
@@ -3242,7 +3248,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3328,7 +3334,7 @@
         <v>1364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -3349,7 +3355,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3358,13 +3364,13 @@
         <v>1364</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,7 +3388,7 @@
         <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -3409,10 +3415,10 @@
         <v>1447851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>
@@ -3471,7 +3477,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1015-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FCAEFF6-D7D9-4D71-ADC8-7BA62D2EFEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5703F737-D205-436D-95B5-E43DB4430E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD8D1800-C65E-421A-9D11-44CBDA5E1D1A}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{1E714AC8-7FFF-4369-A68F-BC4575E42B30}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="115">
   <si>
     <t>Menores según si padecen parálisis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,10 +79,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,97 +100,85 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>95,93%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>98,41%</t>
+    <t>98,02%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>0,15%</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,59%</t>
+    <t>97,86%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>98,91%</t>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -190,52 +187,61 @@
     <t>0,09%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -244,157 +250,139 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,89%</t>
+    <t>98,83%</t>
   </si>
   <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,34%</t>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen parálisis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen parálisis en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>98,24%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
 </sst>
 </file>
@@ -806,8 +794,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B46AFE1-3100-485B-AB71-7E292223276F}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22142D56-DC03-4B70-80C6-55F67E78CA39}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -939,81 +927,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>700</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="I5" s="7">
+        <v>86145</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>177012</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1022,85 +1014,87 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>700</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -1109,64 +1103,64 @@
         <v>700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>129</v>
+        <v>628</v>
       </c>
       <c r="D8" s="7">
-        <v>86144</v>
+        <v>416087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>136</v>
+        <v>718</v>
       </c>
       <c r="I8" s="7">
-        <v>90867</v>
+        <v>476291</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>265</v>
+        <v>1346</v>
       </c>
       <c r="N8" s="7">
-        <v>177012</v>
+        <v>892378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1175,153 +1169,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>700</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>673</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>718</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7">
-        <v>476291</v>
+        <v>174066</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>628</v>
+        <v>235</v>
       </c>
       <c r="I11" s="7">
-        <v>416087</v>
+        <v>157465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1346</v>
+        <v>489</v>
       </c>
       <c r="N11" s="7">
-        <v>892378</v>
+        <v>331532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,153 +1324,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>2074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>673</v>
+        <v>2074</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>1018</v>
       </c>
       <c r="D14" s="7">
-        <v>157465</v>
+        <v>681021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>254</v>
+        <v>1082</v>
       </c>
       <c r="I14" s="7">
-        <v>174066</v>
+        <v>719900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
-        <v>489</v>
+        <v>2100</v>
       </c>
       <c r="N14" s="7">
-        <v>331532</v>
+        <v>1400921</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1485,216 +1479,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2074</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2074</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1083</v>
-      </c>
-      <c r="D17" s="7">
-        <v>720626</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I17" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2101</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1401647</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1707,8 +1545,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8287C56-C1B4-4FA3-866B-4A4EC701284B}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF906EEF-0A93-41C8-8340-D35E05AADDC4}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1724,7 +1562,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1837,20 +1675,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1865,56 +1705,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I5" s="7">
+        <v>83537</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,151 +1765,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2041</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2521</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>650</v>
       </c>
       <c r="D8" s="7">
-        <v>83537</v>
+        <v>449220</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>133</v>
+        <v>702</v>
       </c>
       <c r="I8" s="7">
-        <v>91889</v>
+        <v>490363</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="M8" s="7">
-        <v>250</v>
+        <v>1352</v>
       </c>
       <c r="N8" s="7">
-        <v>175425</v>
+        <v>939582</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,153 +1920,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2041</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2521</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>702</v>
+        <v>234</v>
       </c>
       <c r="D11" s="7">
-        <v>490363</v>
+        <v>165340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>650</v>
+        <v>243</v>
       </c>
       <c r="I11" s="7">
-        <v>449220</v>
+        <v>171561</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1352</v>
+        <v>477</v>
       </c>
       <c r="N11" s="7">
-        <v>939582</v>
+        <v>336901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,153 +2075,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>2041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>2521</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>243</v>
+        <v>1017</v>
       </c>
       <c r="D14" s="7">
-        <v>171561</v>
+        <v>706448</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>234</v>
+        <v>1062</v>
       </c>
       <c r="I14" s="7">
-        <v>165340</v>
+        <v>745460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
-        <v>477</v>
+        <v>2079</v>
       </c>
       <c r="N14" s="7">
-        <v>336901</v>
+        <v>1451908</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,216 +2230,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2041</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>480</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M16" s="7">
-        <v>4</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2521</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D17" s="7">
-        <v>746101</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I17" s="7">
-        <v>706448</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2080</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1452549</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>60</v>
+      <c r="A16" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2608,8 +2296,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4873C0CA-6859-4E19-841F-190F23565A5E}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9ABF92-44E4-4484-9E88-DA98BEC36EF3}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2625,7 +2313,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2728,86 +2416,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>59378</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68614</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N5" s="7">
+        <v>127993</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,48 +2516,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2875,88 +2581,88 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D8" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>694</v>
       </c>
       <c r="I8" s="7">
-        <v>59378</v>
+        <v>488017</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>188</v>
+        <v>1408</v>
       </c>
       <c r="N8" s="7">
-        <v>127993</v>
+        <v>960307</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,153 +2671,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>718</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>646</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>718</v>
+        <v>646</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>694</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>488017</v>
+        <v>172703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>714</v>
+        <v>270</v>
       </c>
       <c r="I11" s="7">
-        <v>472290</v>
+        <v>186849</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1408</v>
+        <v>528</v>
       </c>
       <c r="N11" s="7">
-        <v>960307</v>
+        <v>359551</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,153 +2826,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1364</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>646</v>
+        <v>1364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>270</v>
+        <v>1061</v>
       </c>
       <c r="D14" s="7">
-        <v>186849</v>
+        <v>704371</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>258</v>
+        <v>1063</v>
       </c>
       <c r="I14" s="7">
-        <v>172703</v>
+        <v>743480</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>528</v>
+        <v>2124</v>
       </c>
       <c r="N14" s="7">
-        <v>359551</v>
+        <v>1447851</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,216 +2981,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1364</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M16" s="7">
-        <v>2</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1364</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D17" s="7">
-        <v>743480</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2124</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1447851</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>60</v>
+      <c r="A16" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
